--- a/data/trans_dic/CONS_OTR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,03; 6,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 6,51</t>
+          <t>2,82; 8,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,87; 12,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 10,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 10,64</t>
+          <t>1,89; 6,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,64; 8,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 5,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,13</t>
+          <t>2,96; 6,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 7,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,63</t>
+          <t>3,2; 8,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,15; 17,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 10,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,78</t>
+          <t>2,86; 7,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,63; 11,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,77; 5,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,62</t>
+          <t>3,47; 7,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>3,71; 8,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,82</t>
+          <t>4,35; 9,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>7,44; 12,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,86; 7,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,31</t>
+          <t>6,26; 12,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>6,28; 9,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 3,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,47</t>
+          <t>5,84; 9,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,24</t>
+          <t>9,44; 14,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,12; 2,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,97</t>
+          <t>3,32; 7,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,19</t>
+          <t>8,81; 13,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,05</t>
+          <t>4,31; 11,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 10,71</t>
+          <t>6,25; 12,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,5</t>
+          <t>9,68; 13,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,92</t>
+          <t>1,4; 4,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,36</t>
+          <t>5,29; 9,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>13,03%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,24; 8,87</t>
+          <t>15,45; 22,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>1,31; 4,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,9</t>
+          <t>8,87; 15,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,85</t>
+          <t>13,25; 18,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,92</t>
+          <t>5,01; 9,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,12; 17,16</t>
+          <t>10,44; 17,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,35</t>
+          <t>15,28; 19,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,48</t>
+          <t>3,58; 6,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,57</t>
+          <t>10,69; 15,9</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>16,54%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,52; 9,44</t>
+          <t>28,57; 37,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>1,39; 5,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,77</t>
+          <t>15,56; 22,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 11,22</t>
+          <t>21,67; 28,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,97</t>
+          <t>2,78; 16,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,24; 12,0</t>
+          <t>10,57; 17,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,65</t>
+          <t>26,0; 31,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,26</t>
+          <t>2,73; 10,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,13; 8,96</t>
+          <t>14,16; 18,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>27,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>43,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>21,27%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,14</t>
+          <t>47,19; 56,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,24</t>
+          <t>4,15; 10,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,49; 13,7</t>
+          <t>24,06; 32,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,34</t>
+          <t>33,44; 40,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,69</t>
+          <t>11,64; 18,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,49; 13,82</t>
+          <t>13,64; 20,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,31</t>
+          <t>40,09; 46,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,98</t>
+          <t>9,58; 14,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,18; 13,23</t>
+          <t>18,59; 23,85</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>10,42%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,67; 15,19</t>
+          <t>18,24; 20,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,28</t>
+          <t>0,95; 2,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,62; 22,14</t>
+          <t>9,46; 11,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,25; 17,23</t>
+          <t>17,42; 19,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,23; 9,78</t>
+          <t>5,26; 8,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,67; 18,63</t>
+          <t>9,16; 11,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,52; 15,34</t>
+          <t>18,07; 19,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,43</t>
+          <t>3,51; 5,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>15,83; 19,34</t>
+          <t>9,66; 11,29</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>19,14%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3,24%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>31,68%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>10,85%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>23,91%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>16,59%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>7,68%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>27,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>16,28; 22,54</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 5,0</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>28,37; 35,51</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>10,89; 16,66</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>6,09; 14,64</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>20,89; 26,85</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>14,46; 19,28</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>5,08; 9,3</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>25,59; 29,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>27,79%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>50,56%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>16,63%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>14,61%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>36,65%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>21,9%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>11,54%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>42,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>23,74; 32,03</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 9,41</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>46,88; 54,64</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>13,76; 20,01</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>12,32; 17,22</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>33,56; 40,16</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>19,45; 24,69</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>9,75; 13,4</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>39,89; 45,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>12,67%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,95%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>17,24%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>10,53%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>7,72%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>16,49%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>11,6%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>16,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>11,47; 14,06</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,53; 2,42</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>16,29; 18,28</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>9,43; 11,61</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>6,82; 8,66</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>15,54; 17,45</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>10,68; 12,31</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 5,54</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>16,13; 17,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de otros medicamentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2389</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8741</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5713</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8441</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6449</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8102</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8441</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1277; 4185</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4805; 14965</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3667; 8071</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2067; 19333</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3216; 11715</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5816; 11037</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2607; 21124</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10066; 22711</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3463</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9869</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7963</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19387</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10235</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11426</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19387</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20104</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1953; 5378</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5832; 16109</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5717; 10620</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9003; 32170</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6047; 16770</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8734; 14982</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9651; 31764</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13643; 28876</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5254</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16556</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9524</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15024</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>21782</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14778</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16380</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>38337</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3512; 7835</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6820</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10823; 23266</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7252; 12189</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9218; 22910</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15560; 30793</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12061; 18395</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10364; 24678</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29074; 48445</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>16237</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5035</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14892</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15252</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25357</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>25233</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>31489</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30392</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40125</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13154; 20113</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>772; 12878</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9873; 21778</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12162; 18807</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17441; 45857</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17440; 35081</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26856; 36436</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14439; 47364</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30441; 51901</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>23474</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9170</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28348</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>23775</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21632</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>35358</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>47249</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>30802</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>63706</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19600; 28122</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4451; 16688</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20828; 36988</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19517; 27541</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15982; 29609</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>26528; 45480</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>41896; 53007</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23609; 41236</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>52255; 77732</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>35185</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5906</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>35094</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>28564</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37344</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>26568</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>63749</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>43250</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>61663</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>30747; 39858</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2886; 10471</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>28632; 41616</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>24899; 32367</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12585; 73233</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19944; 33146</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>57852; 69813</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>18054; 66150</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>52785; 70089</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>49653</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>10621</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>40903</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>49679</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>34864</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>35443</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>99332</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>45485</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>76346</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>45467; 54136</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>6298; 16289</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>35373; 47662</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>44781; 54774</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>27193; 43222</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>28886; 43049</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>92326; 105971</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>36938; 55691</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>66716; 85597</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1623</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>135655</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>32087</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>154403</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>140471</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>162049</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>161067</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>276125</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>194136</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>315470</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>127109; 145199</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>20028; 44052</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>138457; 172070</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>131830; 150431</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>117445; 195793</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>143304; 181641</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>262664; 288261</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>152360; 230197</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>292438; 341990</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_OTR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Edad-trans_dic.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 4766</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2857</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_OTR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos</t>
+          <t>Consumo de otros medicamentos (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de otros medicamentos</t>
+          <t>Consumo de otros medicamentos (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_OTR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,66</t>
+          <t>2,06; 6,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 12,91</t>
+          <t>5,21; 11,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,49</t>
+          <t>1,45; 11,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 8,81</t>
+          <t>3,87; 7,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,02</t>
+          <t>0,68; 4,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,78</t>
+          <t>2,16; 6,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 17,0</t>
+          <t>8,21; 14,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 10,23</t>
+          <t>2,64; 10,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,38</t>
+          <t>5,63; 9,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,84</t>
+          <t>1,96; 5,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,27</t>
+          <t>3,2; 6,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,19</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,5</t>
+          <t>6,51; 11,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,1</t>
+          <t>2,86; 7,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,57</t>
+          <t>5,42; 8,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 3,9</t>
+          <t>1,67; 3,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 14,43</t>
+          <t>7,82; 11,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 2,05</t>
+          <t>0,11; 2,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,63</t>
+          <t>7,97; 12,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 11,33</t>
+          <t>4,34; 12,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 13,14</t>
+          <t>8,51; 11,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,59</t>
+          <t>1,29; 4,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>15,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,45; 22,17</t>
+          <t>13,88; 19,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,91</t>
+          <t>1,37; 4,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,25; 18,69</t>
+          <t>13,35; 18,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,28</t>
+          <t>4,8; 9,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,28; 19,33</t>
+          <t>14,19; 18,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,26</t>
+          <t>3,52; 6,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>33,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,57; 37,04</t>
+          <t>29,34; 37,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,03</t>
+          <t>1,5; 5,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,67; 28,17</t>
+          <t>24,55; 31,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,78; 16,18</t>
+          <t>1,97; 16,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,0; 31,37</t>
+          <t>27,72; 33,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,01</t>
+          <t>2,43; 10,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>50,38%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>43,13%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>47,19; 56,18</t>
+          <t>45,75; 54,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,15; 10,73</t>
+          <t>4,08; 10,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>33,44; 40,9</t>
+          <t>33,65; 40,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,64; 18,5</t>
+          <t>11,67; 18,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,09; 46,02</t>
+          <t>39,6; 45,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,58; 14,45</t>
+          <t>9,41; 14,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>18,24; 20,83</t>
+          <t>16,24; 18,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,09</t>
+          <t>0,99; 2,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,42; 19,88</t>
+          <t>16,66; 19,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,77</t>
+          <t>5,13; 8,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,07; 19,83</t>
+          <t>16,79; 18,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,31</t>
+          <t>3,51; 5,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2389</t>
+          <t>2730</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8102</t>
+          <t>7799</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1277; 4185</t>
+          <t>1581; 4658</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3667; 8071</t>
+          <t>3453; 7427</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2067; 19333</t>
+          <t>2675; 21264</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5816; 11037</t>
+          <t>5540; 10620</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2607; 21124</t>
+          <t>2839; 20450</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>2809</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7963</t>
+          <t>7577</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11426</t>
+          <t>10386</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1953; 5378</t>
+          <t>1619; 4740</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5717; 10620</t>
+          <t>5588; 9986</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9003; 32170</t>
+          <t>8289; 32678</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8734; 14982</t>
+          <t>8056; 13496</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9651; 31764</t>
+          <t>10671; 31483</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5254</t>
+          <t>4924</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>9538</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14778</t>
+          <t>14462</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3512; 7835</t>
+          <t>3324; 6931</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0; 6820</t>
+          <t>0; 6683</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7252; 12189</t>
+          <t>7205; 12321</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9218; 22910</t>
+          <t>9237; 22780</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12061; 18395</t>
+          <t>11626; 17658</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10364; 24678</t>
+          <t>10580; 24455</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16237</t>
+          <t>14162</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15252</t>
+          <t>14995</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31489</t>
+          <t>29157</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13154; 20113</t>
+          <t>11327; 17127</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>772; 12878</t>
+          <t>669; 13116</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12162; 18807</t>
+          <t>12158; 18451</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17441; 45857</t>
+          <t>17549; 49592</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26856; 36436</t>
+          <t>25297; 33857</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14439; 47364</t>
+          <t>13300; 51324</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23474</t>
+          <t>21485</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23775</t>
+          <t>23929</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>47249</t>
+          <t>45413</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19600; 28122</t>
+          <t>17988; 25643</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4451; 16688</t>
+          <t>4675; 16670</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>19517; 27541</t>
+          <t>20281; 28173</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15982; 29609</t>
+          <t>15307; 29751</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41896; 53007</t>
+          <t>39955; 51203</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>23609; 41236</t>
+          <t>23190; 41226</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>35185</t>
+          <t>34508</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>28564</t>
+          <t>32127</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>63749</t>
+          <t>66635</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>30747; 39858</t>
+          <t>30655; 38848</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2886; 10471</t>
+          <t>3125; 11441</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24899; 32367</t>
+          <t>28423; 36552</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12585; 73233</t>
+          <t>8926; 72425</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>57852; 69813</t>
+          <t>61042; 73166</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18054; 66150</t>
+          <t>16073; 67835</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>49653</t>
+          <t>44948</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>49679</t>
+          <t>48868</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99332</t>
+          <t>93817</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>45467; 54136</t>
+          <t>40820; 49020</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6298; 16289</t>
+          <t>6186; 16400</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44781; 54774</t>
+          <t>44529; 53562</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>27193; 43222</t>
+          <t>27265; 43949</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>92326; 105971</t>
+          <t>87737; 100236</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>36938; 55691</t>
+          <t>36282; 55377</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>135655</t>
+          <t>125566</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>140471</t>
+          <t>142103</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>276125</t>
+          <t>267670</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>127109; 145199</t>
+          <t>117540; 134174</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>20028; 44052</t>
+          <t>20808; 45035</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>131830; 150431</t>
+          <t>132873; 151587</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>117445; 195793</t>
+          <t>114372; 192988</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>262664; 288261</t>
+          <t>255400; 282291</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>152360; 230197</t>
+          <t>152095; 226496</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_OTR-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_OTR-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,55%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,14%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,78%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,65%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,58%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>5,45%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,46%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 8,79</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,06; 6,06</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 8,79</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,92; 11,98</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 6,87</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>5,21; 11,21</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 11,53</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 6,87</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>0,95; 5,48</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 6,67</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>3,87; 7,42</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 4,86</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 6,67</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>3,75%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>11,13%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,17%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>4,84%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>3,5%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>7,26%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,57%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,11%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3,2; 8,84</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>2,16; 6,32</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 8,84</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3,84; 10,48</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2,86; 7,93</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>8,21; 14,67</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 10,39</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 7,93</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>2,12; 5,6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 7,33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>5,63; 9,44</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 5,79</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>3,47; 7,33</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>4,74%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,65%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>8,61%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,66%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,76%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>6,74%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,83</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 9,35</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>3,2; 6,67</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,35; 9,35</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,69; 6,48</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 12,38</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>6,51; 11,13</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 7,06</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,26; 12,38</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,49; 3,47</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 9,74</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>5,42; 8,23</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 3,86</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>5,84; 9,74</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>9,78%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>9,83%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,26%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,04%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>9,81%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6,97%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,51; 3,16</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 7,33</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>7,82; 11,83</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 2,09</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 7,33</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>3,82; 7,22</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 12,57</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7,97; 12,1</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 12,25</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 12,57</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>2,44; 4,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 9,01</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>8,51; 11,39</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 4,97</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5,29; 9,01</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>16,58%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>6,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>15,75%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>13,92%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>16,13%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>13,03%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,34; 4,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,87; 15,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>13,88; 19,79</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 4,9</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>8,87; 15,76</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>4,79; 9,27</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 17,9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>13,35; 18,55</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>4,8; 9,33</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>10,44; 17,9</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>3,53; 6,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 15,9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>14,19; 18,19</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3,52; 6,26</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>10,69; 15,9</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>33,03%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>19,07%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>27,75%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,25%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>14,08%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>30,25%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>16,54%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,59; 5,56</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15,56; 22,61</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>29,34; 37,19</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 5,5</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>15,56; 22,61</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>12,47; 19,21</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10,57; 17,57</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>24,55; 31,57</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 16,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>10,57; 17,57</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>7,96; 12,19</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14,16; 18,8</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>27,72; 33,22</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 10,27</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>14,16; 18,8</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>50,38%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,0%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>27,82%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>15,25%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>16,73%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>36,93%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>14,92%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>16,73%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21,27%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>42,35%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>11,8%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>21,27%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,24; 11,1</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>24,06; 32,41</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>45,75; 54,94</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>4,08; 10,81</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>24,06; 32,41</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>11,9; 19,23</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13,64; 20,32</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>33,65; 40,48</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>11,67; 18,81</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>13,64; 20,32</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>9,72; 14,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18,59; 23,85</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>39,6; 45,25</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>9,41; 14,37</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>18,59; 23,85</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>17,35%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>10,55%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10,3%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>17,82%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>7,26%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>10,3%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10,42%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>17,59%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>4,48%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>10,42%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>1,25; 2,32</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9,46; 11,75</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>16,24; 18,54</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 2,14</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>9,46; 11,75</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>7,04; 9,0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 11,61</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>16,66; 19,01</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>5,13; 8,65</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>9,16; 11,61</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>4,35; 5,59</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>9,66; 11,29</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>16,79; 18,55</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 5,22</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>9,66; 11,29</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>43</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8741</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2730</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>8741</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>11250</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6449</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>5069</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>8441</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6449</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>11250</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>7799</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>8441</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>15190</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4805; 14965</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1581; 4658</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4805; 14965</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4214; 26311</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3216; 11715</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>3453; 7427</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2675; 21264</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3216; 11715</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>4358; 25263</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10066; 22711</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>5540; 10620</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2839; 20450</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>10066; 22711</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>61</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9869</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2809</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9869</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>19069</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10235</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>7577</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>19387</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>10235</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>19069</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20104</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>10386</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>19387</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>20104</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5832; 16109</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1619; 4740</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5832; 16109</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>10872; 29713</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6047; 16770</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>5588; 9986</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>8289; 32678</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6047; 16770</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>11559; 30567</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13643; 28876</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>8056; 13496</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>10671; 31483</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>13643; 28876</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>90</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1357</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16556</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>4924</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1355</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>16556</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>15821</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21782</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>9538</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>15024</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>21782</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>17177</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38337</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>14462</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>16380</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>38337</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0; 6730</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10823; 23266</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3324; 6931</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0; 6683</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>10823; 23266</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>10063; 24195</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15560; 30793</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>7205; 12321</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9237; 22780</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>15560; 30793</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>11059; 25747</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29074; 48445</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>11626; 17658</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>10580; 24455</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>29074; 48445</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>90</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>90</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>180</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>5492</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14892</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>14162</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5035</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>14892</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>23891</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25233</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>14995</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>25357</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>25233</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>29383</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40125</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>29157</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>30392</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>40125</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>2178; 13389</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9873; 21778</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>11327; 17127</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>669; 13116</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>9873; 21778</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>16837; 31874</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17440; 35081</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>12158; 18451</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>17549; 49592</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>17440; 35081</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>21135; 40644</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>30441; 51901</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>25297; 33857</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>13300; 51324</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>30441; 51901</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>127</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>265</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>98</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>9640</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>28348</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>21485</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>9170</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>28348</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>24557</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>35358</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>23929</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>21632</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>35358</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>34197</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>63706</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>45413</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>30802</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>63706</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4951; 17472</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20828; 36988</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>17988; 25643</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4675; 16670</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>20828; 36988</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>17248; 33422</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26528; 45480</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>20281; 28173</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>15307; 29751</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>26528; 45480</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>25734; 45423</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>52255; 77732</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>39955; 51203</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>23190; 41226</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>52255; 77732</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>208</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>400</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>180</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6955</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>35094</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>34508</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>5906</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>35094</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>42127</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>26568</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>32127</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>37344</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>26568</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>49082</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>61663</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>66635</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>43250</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>61663</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>3681; 12850</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>28632; 41616</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>30655; 38848</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>3125; 11441</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>28632; 41616</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>33685; 51875</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>19944; 33146</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>28423; 36552</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>8926; 72425</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>19944; 33146</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>39905; 61098</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>52785; 70089</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>61042; 73166</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>16073; 67835</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>52785; 70089</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>287</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>297</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>584</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>221</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>11766</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>40903</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>44948</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>10621</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>40903</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>39143</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>35443</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>48868</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>34864</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>35443</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>50908</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>76346</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>93817</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>45485</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>76346</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>7025; 18383</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>35373; 47662</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>40820; 49020</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>6186; 16400</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>35373; 47662</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>30537; 49345</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>28886; 43049</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>44529; 53562</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>27265; 43949</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>28886; 43049</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>41025; 62170</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>66716; 85597</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>87737; 100236</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>36282; 55377</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>66716; 85597</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>774</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>849</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>311</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>1623</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>682</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>35210</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>154403</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>125566</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>32087</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>154403</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>175857</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>161067</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>142103</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>162049</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>161067</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>211067</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>315470</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>267670</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>194136</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>315470</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>25746; 47802</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>138457; 172070</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>117540; 134174</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>20808; 45035</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>138457; 172070</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>155230; 198324</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>143304; 181641</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>132873; 151587</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>114372; 192988</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>143304; 181641</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>185629; 238334</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>292438; 341990</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>255400; 282291</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>152095; 226496</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>292438; 341990</t>
         </is>
       </c>
     </row>
